--- a/medicine/Pharmacie/Timolol/Timolol.xlsx
+++ b/medicine/Pharmacie/Timolol/Timolol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le timolol est un médicament de la classe des bêta-bloquants disponible sous forme de comprimé pour administration par voie orale, et de collyre ou pommade pour la voie oculaire. Par voie générale, les indications sont le traitement de l'hypertension artérielle et la prophylaxie de l'angor. La voie locale est utilisée dans l'hypertonie intra-oculaire et le glaucome chronique, dont c'est un des traitements de première intention. La forme collyre fait partie de la liste modèle de l'OMS des médicaments essentiels. Les effets indésirables et les contre-indications sont ceux des bêta-bloquants.
 </t>
@@ -513,11 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Par la bouche
-pour soigner l'hypertension artérielle
+          <t>Par la bouche</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>pour soigner l'hypertension artérielle
 pour prévenir les crises cardiaques
-pour prévenir les migraines
-Par les yeux</t>
+pour prévenir les migraines</t>
         </is>
       </c>
     </row>
@@ -545,7 +561,9 @@
           <t>Contre-indication[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>asthme et bronchite chronique
 insuffisance cardiaque
@@ -555,9 +573,43 @@
 phéochromocytome non soigné
 hypotension
 antécédent de choc anaphylactique
-en association avec la floctafénine ou le sultopride
-Effets secondaires[1]
-fatigue, insomnie, douleurs d'estomac, nausées, vomissements
+en association avec la floctafénine ou le sultopride</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Timolol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Timolol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Contre-indication[1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Effets secondaires[1]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>fatigue, insomnie, douleurs d'estomac, nausées, vomissements
 bloc auriculoventriculaire, ralentissement excessif du cœur, chute de tension, insuffisance cardiaque, bronchospasme, hypoglycémie, phénomène de Raynaud ;
 éruption cutanée, aggravation d'un psoriasis.</t>
         </is>
